--- a/pred_ohlcv/54_21/2020-01-20 STEEM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 STEEM ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>600352.1942065801</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>615163.47710658</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>641242.3873065801</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -730,7 +730,7 @@
         <v>411056.76517159</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>411056.76517159</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>785123.4930530301</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>765598.1847530301</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>782396.72835877</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>774877.1113587701</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>696472.49295877</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>747020.62351888</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>737655.5794188799</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>827128.03882859</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>864717.6581619199</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>843936.7213942899</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>814394.60309429</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>833904.89890558</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>828153.13610558</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>838531.69150558</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>757305.69243891</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>754802.5416389101</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>766811.9996389101</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>766678.92083891</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>779993.69093891</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>773466.89033891</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>776291.89033891</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>776291.89033891</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>777147.14343891</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>770076.14843891</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>756252.60863891</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>759265.43563891</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>758993.43563891</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>758993.43563891</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>758123.43563891</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>759193.75663891</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>758543.34593891</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>758216.28243891</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>758549.9454389099</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>744437.00893891</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>744440.00893891</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>742717.4452389099</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>742717.4452389099</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>739444.16703891</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>744629.23283891</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>744629.23283891</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>744629.23283891</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>744629.23283891</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>742953.4289389099</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>738623.5307779898</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>739749.5307779898</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>739668.5307779898</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>742366.3136779898</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>755975.3615779898</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>749110.0837779897</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>488111.6731838202</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>471822.2918009402</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>393302.1192009402</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>406856.2045009402</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>324160.5571529102</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>404550.3165927401</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>355579.6032174102</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>360402.1618174101</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>332285.6105174102</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>288841.3678174102</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>309746.8551174101</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>350108.7333174101</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>381526.5779174101</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>405340.6788174101</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>478312.9887174101</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>478312.9887174101</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>473674.1860174101</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>473674.1860174101</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>451153.1863889101</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>452240.3186889101</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>444430.6274889101</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>435763.6347889101</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>438172.3470889101</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>445319.3660889101</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>443747.3660889101</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>451244.8980889102</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>441099.3663889102</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>444683.2097889102</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>438437.6312889102</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>477146.8360889102</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>502991.5683041302</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>495275.0040041301</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>486768.0279041302</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>518371.7004503102</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>502845.9960964902</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>517855.1328964902</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>517855.1328964902</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>517151.5593964902</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>517151.5593964902</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>489214.0221964901</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>442742.8724964901</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>451703.0065964902</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>450785.0282935802</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>448204.4707935802</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>443524.1230935802</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>435527.6826935802</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>435527.6826935802</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>434729.7847935802</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>638070.3587407799</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>611578.8087407799</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>589459.7957352399</v>
       </c>
       <c r="H830">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>652148.4795296999</v>
       </c>
       <c r="H831">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>652148.4795296999</v>
       </c>
       <c r="H832">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>761028.5216296999</v>
       </c>
       <c r="H833">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>780259.1612961099</v>
       </c>
       <c r="H834">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>772922.2084184799</v>
       </c>
       <c r="H835">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>784153.9537633399</v>
       </c>
       <c r="H836">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>784153.9537633399</v>
       </c>
       <c r="H837">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>715333.2839081999</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>637476.0963081999</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>597465.9201081999</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>564111.9933081999</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>594912.8100081999</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>555751.6809550299</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>555751.6809550299</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>536524.3615939299</v>
       </c>
       <c r="H845">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>556685.13549393</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>556685.13549393</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>556685.13549393</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>588139.2132939299</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>595687.6799939299</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>611359.7044939299</v>
       </c>
       <c r="H851">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>592674.4205939298</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>565707.8798939298</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>565810.4391939298</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>563212.5940939297</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>571288.9326939298</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>563123.2233939298</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>568168.0447939298</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>568042.7509939298</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>568904.0779939299</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>568904.0779939299</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>545068.6502939299</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>522526.4334939299</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>519640.6904939298</v>
       </c>
       <c r="H864">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>493739.0729939298</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>499217.3558939298</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>199204.3677321698</v>
       </c>
       <c r="H995">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>246639.5809321698</v>
       </c>
       <c r="H997">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>223910.1982321698</v>
       </c>
       <c r="H998">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>223697.1982321698</v>
       </c>
       <c r="H999">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>210573.6410321698</v>
       </c>
       <c r="H1000">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>210889.6410321698</v>
       </c>
       <c r="H1001">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>188719.5261321698</v>
       </c>
       <c r="H1002">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>197236.6070321698</v>
       </c>
       <c r="H1003">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -26496,7 +26496,7 @@
         <v>204959.0931321698</v>
       </c>
       <c r="H1004">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1005" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>197768.8890321698</v>
       </c>
       <c r="H1005">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1006" spans="1:8">
@@ -26548,7 +26548,7 @@
         <v>179147.0547321698</v>
       </c>
       <c r="H1006">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1007" spans="1:8">
@@ -26574,7 +26574,7 @@
         <v>206282.7071321698</v>
       </c>
       <c r="H1007">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1008" spans="1:8">
@@ -26600,7 +26600,7 @@
         <v>181903.9900321698</v>
       </c>
       <c r="H1008">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1009" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>178064.5169321698</v>
       </c>
       <c r="H1009">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26652,7 +26652,7 @@
         <v>183840.5246321698</v>
       </c>
       <c r="H1010">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1011" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>192133.9459321698</v>
       </c>
       <c r="H1011">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -26704,7 +26704,7 @@
         <v>159211.6199321698</v>
       </c>
       <c r="H1012">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>159214.2199321698</v>
       </c>
       <c r="H1013">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26808,7 +26808,7 @@
         <v>151832.3982321698</v>
       </c>
       <c r="H1016">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1017" spans="1:8">
@@ -27510,7 +27510,7 @@
         <v>138488.1114321698</v>
       </c>
       <c r="H1043">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1044" spans="1:8">
@@ -27536,7 +27536,7 @@
         <v>135684.3822321698</v>
       </c>
       <c r="H1044">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1045" spans="1:8">
@@ -27562,7 +27562,7 @@
         <v>138417.4191321698</v>
       </c>
       <c r="H1045">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1046" spans="1:8">
@@ -28004,7 +28004,7 @@
         <v>147993.3615321698</v>
       </c>
       <c r="H1062">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1063" spans="1:8">
@@ -28030,7 +28030,7 @@
         <v>148193.3615321698</v>
       </c>
       <c r="H1063">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1064" spans="1:8">
@@ -28212,7 +28212,7 @@
         <v>133069.0330321698</v>
       </c>
       <c r="H1070">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1071" spans="1:8">
@@ -28238,7 +28238,7 @@
         <v>130674.0421321698</v>
       </c>
       <c r="H1071">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1072" spans="1:8">
@@ -28264,7 +28264,7 @@
         <v>130674.0421321698</v>
       </c>
       <c r="H1072">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1073" spans="1:8">
@@ -28290,7 +28290,7 @@
         <v>143821.9267321698</v>
       </c>
       <c r="H1073">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1074" spans="1:8">
@@ -28316,7 +28316,7 @@
         <v>139090.5336321698</v>
       </c>
       <c r="H1074">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1075" spans="1:8">
@@ -28342,7 +28342,7 @@
         <v>146987.2467321698</v>
       </c>
       <c r="H1075">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1076" spans="1:8">
@@ -28368,7 +28368,7 @@
         <v>146839.8819321698</v>
       </c>
       <c r="H1076">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1077" spans="1:8">
@@ -28394,7 +28394,7 @@
         <v>146964.8819321698</v>
       </c>
       <c r="H1077">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1078" spans="1:8">
@@ -28420,7 +28420,7 @@
         <v>151612.9844321698</v>
       </c>
       <c r="H1078">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1079" spans="1:8">
@@ -28446,7 +28446,7 @@
         <v>151612.9844321698</v>
       </c>
       <c r="H1079">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1080" spans="1:8">
@@ -28472,7 +28472,7 @@
         <v>141770.8463321698</v>
       </c>
       <c r="H1080">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1081" spans="1:8">
@@ -28498,7 +28498,7 @@
         <v>146685.2400321698</v>
       </c>
       <c r="H1081">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1082" spans="1:8">
@@ -28524,7 +28524,7 @@
         <v>146688.7668321698</v>
       </c>
       <c r="H1082">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1083" spans="1:8">
@@ -28550,7 +28550,7 @@
         <v>146688.7668321698</v>
       </c>
       <c r="H1083">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1084" spans="1:8">
@@ -28576,7 +28576,7 @@
         <v>146298.2632321698</v>
       </c>
       <c r="H1084">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1085" spans="1:8">
@@ -28602,7 +28602,7 @@
         <v>146298.2632321698</v>
       </c>
       <c r="H1085">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1086" spans="1:8">
@@ -28628,7 +28628,7 @@
         <v>146298.2632321698</v>
       </c>
       <c r="H1086">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1087" spans="1:8">
@@ -28654,7 +28654,7 @@
         <v>149298.2632321698</v>
       </c>
       <c r="H1087">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1088" spans="1:8">
@@ -28680,7 +28680,7 @@
         <v>149298.2632321698</v>
       </c>
       <c r="H1088">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1089" spans="1:8">
@@ -28706,7 +28706,7 @@
         <v>149298.2632321698</v>
       </c>
       <c r="H1089">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1090" spans="1:8">
@@ -28732,7 +28732,7 @@
         <v>149298.2632321698</v>
       </c>
       <c r="H1090">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1091" spans="1:8">
@@ -28758,7 +28758,7 @@
         <v>149945.0986321698</v>
       </c>
       <c r="H1091">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1092" spans="1:8">
@@ -28784,7 +28784,7 @@
         <v>150203.6976321698</v>
       </c>
       <c r="H1092">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1093" spans="1:8">
@@ -28810,7 +28810,7 @@
         <v>148282.8621321698</v>
       </c>
       <c r="H1093">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1094" spans="1:8">
@@ -28836,7 +28836,7 @@
         <v>147754.3478321698</v>
       </c>
       <c r="H1094">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1095" spans="1:8">
@@ -28862,7 +28862,7 @@
         <v>147754.3478321698</v>
       </c>
       <c r="H1095">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1096" spans="1:8">
@@ -28888,7 +28888,7 @@
         <v>146246.3935321698</v>
       </c>
       <c r="H1096">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1097" spans="1:8">
@@ -28914,7 +28914,7 @@
         <v>146246.3935321698</v>
       </c>
       <c r="H1097">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1098" spans="1:8">
@@ -28940,7 +28940,7 @@
         <v>146246.3935321698</v>
       </c>
       <c r="H1098">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1099" spans="1:8">
@@ -28966,7 +28966,7 @@
         <v>146246.3935321698</v>
       </c>
       <c r="H1099">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1100" spans="1:8">
@@ -28992,7 +28992,7 @@
         <v>136183.1803321698</v>
       </c>
       <c r="H1100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1101" spans="1:8">
@@ -29018,7 +29018,7 @@
         <v>136183.1803321698</v>
       </c>
       <c r="H1101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-20 STEEM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 STEEM ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>600352.1942065801</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>615163.47710658</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>641242.3873065801</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -730,7 +730,7 @@
         <v>411056.76517159</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>411056.76517159</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>785123.4930530301</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>765598.1847530301</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>810037.88575877</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>782396.72835877</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>774877.1113587701</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>696472.49295877</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>826189.4042942899</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>848550.59859429</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>814394.60309429</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>833904.89890558</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>828153.13610558</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>797999.73402079</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>796133.0296207899</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>788381.9858207899</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>757305.69243891</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>754802.5416389101</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>766811.9996389101</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>766678.92083891</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>779993.69093891</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>773466.89033891</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>776291.89033891</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>776291.89033891</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>777147.14343891</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>770076.14843891</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>756252.60863891</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>759265.43563891</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>758993.43563891</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>758993.43563891</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>758123.43563891</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>759193.75663891</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>758543.34593891</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>758216.28243891</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>758549.9454389099</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>744437.00893891</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>744440.00893891</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>742717.4452389099</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>742717.4452389099</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>739444.16703891</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>744629.23283891</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>744629.23283891</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>744629.23283891</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>744629.23283891</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>742953.4289389099</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>811177.6487583299</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>784735.1872583299</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>758491.0391583299</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>795289.5196583299</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>839649.6576583299</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>880055.9292150099</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>867643.2504150099</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>851280.6684150099</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>822231.1894150098</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>821752.2878150098</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>821752.2878150098</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>816795.5217150098</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>816795.5217150098</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>810598.3336779898</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>797602.6516779898</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>798278.2151779898</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>770414.5614779898</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>714243.4822779897</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>738623.5307779898</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>739749.5307779898</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>738647.1624779898</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>742092.5953779898</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>751649.1203779897</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>755959.2117779898</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>773310.7425779897</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>773688.0488779898</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>798545.1837779897</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>796366.5279779898</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>795985.8279779898</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>795985.8279779898</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>796050.8279779898</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>789622.4899779898</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>789622.4899779898</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>789430.6008779898</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>789588.0308779898</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>790347.0758779899</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>788894.0178779899</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>784573.4049035298</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>794854.6172035298</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>787978.4172035299</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>785163.8387035299</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>785163.8387035299</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>785163.8387035299</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>784824.2387035299</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>782127.7342035299</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>718213.8744489099</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>718678.5080489098</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>716276.8418489099</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>716276.8418489099</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>716276.8418489099</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>723395.7705489099</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>715243.6057736599</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>719022.7884217999</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>732611.7963217999</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>731271.9589217999</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>743121.9489217999</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>715651.1024217999</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>488111.6731838202</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>471822.2918009402</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>393302.1192009402</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>406856.2045009402</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>324160.5571529102</v>
       </c>
       <c r="H567">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>404550.3165927401</v>
       </c>
       <c r="H568">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>355579.6032174102</v>
       </c>
       <c r="H569">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>360402.1618174101</v>
       </c>
       <c r="H570">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>332285.6105174102</v>
       </c>
       <c r="H571">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>288841.3678174102</v>
       </c>
       <c r="H572">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>309746.8551174101</v>
       </c>
       <c r="H573">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>350108.7333174101</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>381526.5779174101</v>
       </c>
       <c r="H575">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>405340.6788174101</v>
       </c>
       <c r="H576">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>478312.9887174101</v>
       </c>
       <c r="H577">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>478312.9887174101</v>
       </c>
       <c r="H578">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>473674.1860174101</v>
       </c>
       <c r="H579">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>473674.1860174101</v>
       </c>
       <c r="H580">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>451153.1863889101</v>
       </c>
       <c r="H581">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>452240.3186889101</v>
       </c>
       <c r="H582">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>444430.6274889101</v>
       </c>
       <c r="H583">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>435763.6347889101</v>
       </c>
       <c r="H584">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>438172.3470889101</v>
       </c>
       <c r="H585">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>445319.3660889101</v>
       </c>
       <c r="H586">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>443747.3660889101</v>
       </c>
       <c r="H587">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>451244.8980889102</v>
       </c>
       <c r="H588">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>441099.3663889102</v>
       </c>
       <c r="H589">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>444683.2097889102</v>
       </c>
       <c r="H590">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>438437.6312889102</v>
       </c>
       <c r="H591">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>477146.8360889102</v>
       </c>
       <c r="H592">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>502991.5683041302</v>
       </c>
       <c r="H593">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>495275.0040041301</v>
       </c>
       <c r="H594">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>486768.0279041302</v>
       </c>
       <c r="H595">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>518371.7004503102</v>
       </c>
       <c r="H596">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>502845.9960964902</v>
       </c>
       <c r="H597">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>517855.1328964902</v>
       </c>
       <c r="H598">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>517855.1328964902</v>
       </c>
       <c r="H599">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>517151.5593964902</v>
       </c>
       <c r="H600">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>517151.5593964902</v>
       </c>
       <c r="H601">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>489214.0221964901</v>
       </c>
       <c r="H602">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>442742.8724964901</v>
       </c>
       <c r="H603">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>451703.0065964902</v>
       </c>
       <c r="H604">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>450785.0282935802</v>
       </c>
       <c r="H605">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>448204.4707935802</v>
       </c>
       <c r="H606">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>443524.1230935802</v>
       </c>
       <c r="H607">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>435527.6826935802</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>435527.6826935802</v>
       </c>
       <c r="H609">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>434729.7847935802</v>
       </c>
       <c r="H610">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>638070.3587407799</v>
       </c>
       <c r="H828">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>611578.8087407799</v>
       </c>
       <c r="H829">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>589459.7957352399</v>
       </c>
       <c r="H830">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>652148.4795296999</v>
       </c>
       <c r="H831">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>652148.4795296999</v>
       </c>
       <c r="H832">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>761028.5216296999</v>
       </c>
       <c r="H833">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>564111.9933081999</v>
       </c>
       <c r="H841">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>594912.8100081999</v>
       </c>
       <c r="H842">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>555751.6809550299</v>
       </c>
       <c r="H843">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>555751.6809550299</v>
       </c>
       <c r="H844">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>536524.3615939299</v>
       </c>
       <c r="H845">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>556685.13549393</v>
       </c>
       <c r="H846">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>556685.13549393</v>
       </c>
       <c r="H847">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>556685.13549393</v>
       </c>
       <c r="H848">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>588139.2132939299</v>
       </c>
       <c r="H849">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>595687.6799939299</v>
       </c>
       <c r="H850">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>611359.7044939299</v>
       </c>
       <c r="H851">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>592674.4205939298</v>
       </c>
       <c r="H852">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>565707.8798939298</v>
       </c>
       <c r="H853">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>565810.4391939298</v>
       </c>
       <c r="H854">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>563212.5940939297</v>
       </c>
       <c r="H855">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>571288.9326939298</v>
       </c>
       <c r="H856">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>563123.2233939298</v>
       </c>
       <c r="H857">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>568168.0447939298</v>
       </c>
       <c r="H858">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>568042.7509939298</v>
       </c>
       <c r="H859">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>568904.0779939299</v>
       </c>
       <c r="H860">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>568904.0779939299</v>
       </c>
       <c r="H861">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>545068.6502939299</v>
       </c>
       <c r="H862">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>522526.4334939299</v>
       </c>
       <c r="H863">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>519640.6904939298</v>
       </c>
       <c r="H864">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>493739.0729939298</v>
       </c>
       <c r="H865">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>499217.3558939298</v>
       </c>
       <c r="H866">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>199204.3677321698</v>
       </c>
       <c r="H995">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>246639.5809321698</v>
       </c>
       <c r="H997">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>223910.1982321698</v>
       </c>
       <c r="H998">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>223697.1982321698</v>
       </c>
       <c r="H999">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>210573.6410321698</v>
       </c>
       <c r="H1000">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>210889.6410321698</v>
       </c>
       <c r="H1001">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>188719.5261321698</v>
       </c>
       <c r="H1002">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>197236.6070321698</v>
       </c>
       <c r="H1003">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -26496,7 +26496,7 @@
         <v>204959.0931321698</v>
       </c>
       <c r="H1004">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1005" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>197768.8890321698</v>
       </c>
       <c r="H1005">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1006" spans="1:8">
@@ -26548,7 +26548,7 @@
         <v>179147.0547321698</v>
       </c>
       <c r="H1006">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1007" spans="1:8">
@@ -26574,7 +26574,7 @@
         <v>206282.7071321698</v>
       </c>
       <c r="H1007">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1008" spans="1:8">
@@ -26600,7 +26600,7 @@
         <v>181903.9900321698</v>
       </c>
       <c r="H1008">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1009" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>178064.5169321698</v>
       </c>
       <c r="H1009">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26652,7 +26652,7 @@
         <v>183840.5246321698</v>
       </c>
       <c r="H1010">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1011" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>192133.9459321698</v>
       </c>
       <c r="H1011">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -26704,7 +26704,7 @@
         <v>159211.6199321698</v>
       </c>
       <c r="H1012">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>159214.2199321698</v>
       </c>
       <c r="H1013">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26808,7 +26808,7 @@
         <v>151832.3982321698</v>
       </c>
       <c r="H1016">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1017" spans="1:8">
@@ -27510,7 +27510,7 @@
         <v>138488.1114321698</v>
       </c>
       <c r="H1043">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1044" spans="1:8">
@@ -27536,7 +27536,7 @@
         <v>135684.3822321698</v>
       </c>
       <c r="H1044">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1045" spans="1:8">
@@ -27952,7 +27952,7 @@
         <v>152981.0763321698</v>
       </c>
       <c r="H1060">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1061" spans="1:8">
@@ -27978,7 +27978,7 @@
         <v>147868.3615321698</v>
       </c>
       <c r="H1061">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1062" spans="1:8">
@@ -28212,7 +28212,7 @@
         <v>133069.0330321698</v>
       </c>
       <c r="H1070">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1071" spans="1:8">
@@ -28238,7 +28238,7 @@
         <v>130674.0421321698</v>
       </c>
       <c r="H1071">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1072" spans="1:8">
@@ -28264,7 +28264,7 @@
         <v>130674.0421321698</v>
       </c>
       <c r="H1072">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1073" spans="1:8">
@@ -28290,7 +28290,7 @@
         <v>143821.9267321698</v>
       </c>
       <c r="H1073">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1074" spans="1:8">
@@ -28316,7 +28316,7 @@
         <v>139090.5336321698</v>
       </c>
       <c r="H1074">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1075" spans="1:8">
@@ -28342,7 +28342,7 @@
         <v>146987.2467321698</v>
       </c>
       <c r="H1075">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1076" spans="1:8">
@@ -28368,7 +28368,7 @@
         <v>146839.8819321698</v>
       </c>
       <c r="H1076">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1077" spans="1:8">
@@ -28394,7 +28394,7 @@
         <v>146964.8819321698</v>
       </c>
       <c r="H1077">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1078" spans="1:8">
@@ -28420,7 +28420,7 @@
         <v>151612.9844321698</v>
       </c>
       <c r="H1078">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1079" spans="1:8">
@@ -28446,7 +28446,7 @@
         <v>151612.9844321698</v>
       </c>
       <c r="H1079">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1080" spans="1:8">
@@ -28472,7 +28472,7 @@
         <v>141770.8463321698</v>
       </c>
       <c r="H1080">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1081" spans="1:8">
@@ -28498,7 +28498,7 @@
         <v>146685.2400321698</v>
       </c>
       <c r="H1081">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1082" spans="1:8">
@@ -28524,7 +28524,7 @@
         <v>146688.7668321698</v>
       </c>
       <c r="H1082">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1083" spans="1:8">
@@ -28550,7 +28550,7 @@
         <v>146688.7668321698</v>
       </c>
       <c r="H1083">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1084" spans="1:8">
@@ -28576,7 +28576,7 @@
         <v>146298.2632321698</v>
       </c>
       <c r="H1084">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1085" spans="1:8">
@@ -28602,7 +28602,7 @@
         <v>146298.2632321698</v>
       </c>
       <c r="H1085">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1086" spans="1:8">
@@ -28628,7 +28628,7 @@
         <v>146298.2632321698</v>
       </c>
       <c r="H1086">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1087" spans="1:8">
@@ -28654,7 +28654,7 @@
         <v>149298.2632321698</v>
       </c>
       <c r="H1087">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1088" spans="1:8">
@@ -28680,7 +28680,7 @@
         <v>149298.2632321698</v>
       </c>
       <c r="H1088">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1089" spans="1:8">
@@ -28706,7 +28706,7 @@
         <v>149298.2632321698</v>
       </c>
       <c r="H1089">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1090" spans="1:8">
@@ -28732,7 +28732,7 @@
         <v>149298.2632321698</v>
       </c>
       <c r="H1090">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1091" spans="1:8">
@@ -28758,7 +28758,7 @@
         <v>149945.0986321698</v>
       </c>
       <c r="H1091">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1092" spans="1:8">
@@ -28784,7 +28784,7 @@
         <v>150203.6976321698</v>
       </c>
       <c r="H1092">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1093" spans="1:8">
@@ -28810,7 +28810,7 @@
         <v>148282.8621321698</v>
       </c>
       <c r="H1093">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1094" spans="1:8">
@@ -28836,7 +28836,7 @@
         <v>147754.3478321698</v>
       </c>
       <c r="H1094">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1095" spans="1:8">
@@ -28862,7 +28862,7 @@
         <v>147754.3478321698</v>
       </c>
       <c r="H1095">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1096" spans="1:8">
@@ -28888,7 +28888,7 @@
         <v>146246.3935321698</v>
       </c>
       <c r="H1096">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1097" spans="1:8">
@@ -28914,7 +28914,7 @@
         <v>146246.3935321698</v>
       </c>
       <c r="H1097">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1098" spans="1:8">
@@ -28940,7 +28940,7 @@
         <v>146246.3935321698</v>
       </c>
       <c r="H1098">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1099" spans="1:8">
